--- a/database/industries/siman/seshargh/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/seshargh/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\seshargh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCBD0AF-ADEB-410D-A586-5ABF88F29703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BC1BA0-A9FA-4D8A-8EB6-8DF7C28A8003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل اول منتهی به 1400/09</t>
@@ -642,16 +657,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I95"/>
+  <dimension ref="B1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -660,8 +675,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,8 +692,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -684,8 +709,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -694,8 +724,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,8 +741,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -718,8 +758,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -728,8 +773,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -750,8 +800,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -760,10 +825,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -772,104 +842,169 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>352656</v>
+      </c>
+      <c r="F12" s="13">
+        <v>336505</v>
+      </c>
+      <c r="G12" s="13">
+        <v>291718</v>
+      </c>
+      <c r="H12" s="13">
+        <v>369035</v>
+      </c>
+      <c r="I12" s="13">
+        <v>291628</v>
+      </c>
+      <c r="J12" s="13">
         <v>361358</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13">
+        <v>273456</v>
+      </c>
+      <c r="L12" s="13">
         <v>292406</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>375569</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>391204</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>33977</v>
+      </c>
+      <c r="F13" s="11">
+        <v>38197</v>
+      </c>
+      <c r="G13" s="11">
+        <v>24961</v>
+      </c>
+      <c r="H13" s="11">
+        <v>36216</v>
+      </c>
+      <c r="I13" s="11">
+        <v>23625</v>
+      </c>
+      <c r="J13" s="11">
         <v>42724</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>19572</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>32088</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
+        <v>386633</v>
+      </c>
+      <c r="F14" s="15">
+        <v>374702</v>
+      </c>
+      <c r="G14" s="15">
+        <v>316679</v>
+      </c>
+      <c r="H14" s="15">
+        <v>405251</v>
+      </c>
+      <c r="I14" s="15">
+        <v>315253</v>
+      </c>
+      <c r="J14" s="15">
         <v>404082</v>
       </c>
-      <c r="F14" s="15">
-        <v>19572</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="K14" s="15">
+        <v>293028</v>
+      </c>
+      <c r="L14" s="15">
         <v>324494</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>375569</v>
       </c>
-      <c r="I14" s="15">
+      <c r="N14" s="15">
         <v>391204</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -878,61 +1013,96 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>13</v>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
+        <v>77202</v>
+      </c>
+      <c r="F17" s="13">
+        <v>97433</v>
+      </c>
+      <c r="G17" s="13">
+        <v>95592</v>
+      </c>
+      <c r="H17" s="13">
+        <v>101925</v>
+      </c>
+      <c r="I17" s="13">
+        <v>66276</v>
+      </c>
+      <c r="J17" s="13">
         <v>31280</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="K17" s="13">
+        <v>32303</v>
+      </c>
+      <c r="L17" s="13">
         <v>28909</v>
       </c>
-      <c r="H17" s="13">
+      <c r="M17" s="13">
         <v>51860</v>
       </c>
-      <c r="I17" s="13">
+      <c r="N17" s="13">
         <v>60400</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
@@ -941,41 +1111,71 @@
       <c r="F18" s="11">
         <v>0</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>56</v>
+      </c>
+      <c r="I18" s="11">
+        <v>199</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
+        <v>77202</v>
+      </c>
+      <c r="F19" s="15">
+        <v>97433</v>
+      </c>
+      <c r="G19" s="15">
+        <v>95592</v>
+      </c>
+      <c r="H19" s="15">
+        <v>101981</v>
+      </c>
+      <c r="I19" s="15">
+        <v>66475</v>
+      </c>
+      <c r="J19" s="15">
         <v>31280</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="K19" s="15">
+        <v>32303</v>
+      </c>
+      <c r="L19" s="15">
         <v>28909</v>
       </c>
-      <c r="H19" s="15">
+      <c r="M19" s="15">
         <v>51860</v>
       </c>
-      <c r="I19" s="15">
+      <c r="N19" s="15">
         <v>60400</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -984,10 +1184,15 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -1006,40 +1211,70 @@
       <c r="I21" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>13</v>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19">
         <v>0</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>13</v>
+      <c r="F23" s="19">
+        <v>0</v>
       </c>
       <c r="G23" s="19">
         <v>0</v>
@@ -1050,30 +1285,60 @@
       <c r="I23" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19">
+        <v>0</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
+        <v>463835</v>
+      </c>
+      <c r="F24" s="15">
+        <v>472135</v>
+      </c>
+      <c r="G24" s="15">
+        <v>412271</v>
+      </c>
+      <c r="H24" s="15">
+        <v>507232</v>
+      </c>
+      <c r="I24" s="15">
+        <v>381728</v>
+      </c>
+      <c r="J24" s="15">
         <v>435362</v>
       </c>
-      <c r="F24" s="15">
-        <v>19572</v>
-      </c>
-      <c r="G24" s="15">
+      <c r="K24" s="15">
+        <v>325331</v>
+      </c>
+      <c r="L24" s="15">
         <v>353403</v>
       </c>
-      <c r="H24" s="15">
+      <c r="M24" s="15">
         <v>427429</v>
       </c>
-      <c r="I24" s="15">
+      <c r="N24" s="15">
         <v>451604</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1082,8 +1347,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1092,8 +1362,13 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1102,10 +1377,15 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1124,8 +1404,23 @@
       <c r="I28" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1134,10 +1429,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1146,104 +1446,169 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>13</v>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
+        <v>803382</v>
+      </c>
+      <c r="F32" s="13">
+        <v>887011</v>
+      </c>
+      <c r="G32" s="13">
+        <v>782271</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1306613</v>
+      </c>
+      <c r="I32" s="13">
+        <v>1378643</v>
+      </c>
+      <c r="J32" s="13">
         <v>1577049</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="K32" s="13">
+        <v>1295924</v>
+      </c>
+      <c r="L32" s="13">
         <v>1532519</v>
       </c>
-      <c r="H32" s="13">
+      <c r="M32" s="13">
         <v>1928685</v>
       </c>
-      <c r="I32" s="13">
+      <c r="N32" s="13">
         <v>1911174</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
+        <v>51612</v>
+      </c>
+      <c r="F33" s="11">
+        <v>60415</v>
+      </c>
+      <c r="G33" s="11">
+        <v>44453</v>
+      </c>
+      <c r="H33" s="11">
+        <v>78096</v>
+      </c>
+      <c r="I33" s="11">
+        <v>62747</v>
+      </c>
+      <c r="J33" s="11">
         <v>129924</v>
       </c>
-      <c r="F33" s="11">
+      <c r="K33" s="11">
         <v>62314</v>
       </c>
-      <c r="G33" s="11">
+      <c r="L33" s="11">
         <v>120406</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
+        <v>854994</v>
+      </c>
+      <c r="F34" s="15">
+        <v>947426</v>
+      </c>
+      <c r="G34" s="15">
+        <v>826724</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1384709</v>
+      </c>
+      <c r="I34" s="15">
+        <v>1441390</v>
+      </c>
+      <c r="J34" s="15">
         <v>1706973</v>
       </c>
-      <c r="F34" s="15">
-        <v>62314</v>
-      </c>
-      <c r="G34" s="15">
+      <c r="K34" s="15">
+        <v>1358238</v>
+      </c>
+      <c r="L34" s="15">
         <v>1652925</v>
       </c>
-      <c r="H34" s="15">
+      <c r="M34" s="15">
         <v>1928685</v>
       </c>
-      <c r="I34" s="15">
+      <c r="N34" s="15">
         <v>1911174</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1252,61 +1617,96 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>13</v>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>163492</v>
+      </c>
+      <c r="F37" s="13">
+        <v>272050</v>
+      </c>
+      <c r="G37" s="13">
+        <v>323925</v>
+      </c>
+      <c r="H37" s="13">
+        <v>454162</v>
+      </c>
+      <c r="I37" s="13">
+        <v>363389</v>
+      </c>
+      <c r="J37" s="13">
         <v>185771</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="K37" s="13">
+        <v>173761</v>
+      </c>
+      <c r="L37" s="13">
         <v>160880</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>328067</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>386301</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
@@ -1315,41 +1715,71 @@
       <c r="F38" s="11">
         <v>0</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>569</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1428</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>163492</v>
+      </c>
+      <c r="F39" s="15">
+        <v>272050</v>
+      </c>
+      <c r="G39" s="15">
+        <v>323925</v>
+      </c>
+      <c r="H39" s="15">
+        <v>454731</v>
+      </c>
+      <c r="I39" s="15">
+        <v>364817</v>
+      </c>
+      <c r="J39" s="15">
         <v>185771</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
+      <c r="K39" s="15">
+        <v>173761</v>
+      </c>
+      <c r="L39" s="15">
         <v>160880</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>328067</v>
       </c>
-      <c r="I39" s="15">
+      <c r="N39" s="15">
         <v>386301</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -1358,10 +1788,15 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -1380,44 +1815,74 @@
       <c r="I41" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="K41" s="19">
+        <v>0</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19">
+        <v>0</v>
+      </c>
+      <c r="N41" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>13</v>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <v>0</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19">
         <v>0</v>
       </c>
-      <c r="F43" s="19" t="s">
-        <v>13</v>
+      <c r="F43" s="19">
+        <v>0</v>
       </c>
       <c r="G43" s="19">
         <v>0</v>
@@ -1428,30 +1893,60 @@
       <c r="I43" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="19">
+        <v>0</v>
+      </c>
+      <c r="K43" s="19">
+        <v>0</v>
+      </c>
+      <c r="L43" s="19">
+        <v>0</v>
+      </c>
+      <c r="M43" s="19">
+        <v>0</v>
+      </c>
+      <c r="N43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
+        <v>1018486</v>
+      </c>
+      <c r="F44" s="15">
+        <v>1219476</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1150649</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1839440</v>
+      </c>
+      <c r="I44" s="15">
+        <v>1806207</v>
+      </c>
+      <c r="J44" s="15">
         <v>1892744</v>
       </c>
-      <c r="F44" s="15">
-        <v>62314</v>
-      </c>
-      <c r="G44" s="15">
+      <c r="K44" s="15">
+        <v>1531999</v>
+      </c>
+      <c r="L44" s="15">
         <v>1813805</v>
       </c>
-      <c r="H44" s="15">
+      <c r="M44" s="15">
         <v>2256752</v>
       </c>
-      <c r="I44" s="15">
+      <c r="N44" s="15">
         <v>2297475</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1460,8 +1955,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1470,8 +1970,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1480,10 +1985,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1502,8 +2012,23 @@
       <c r="I48" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1512,10 +2037,15 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -1524,82 +2054,132 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
+        <v>2278090</v>
+      </c>
+      <c r="F52" s="13">
+        <v>2635952</v>
+      </c>
+      <c r="G52" s="13">
+        <v>2681600</v>
+      </c>
+      <c r="H52" s="13">
+        <v>3540621</v>
+      </c>
+      <c r="I52" s="13">
+        <v>4728318</v>
+      </c>
+      <c r="J52" s="13">
         <v>4364229</v>
       </c>
-      <c r="F52" s="13">
-        <v>4525693</v>
-      </c>
-      <c r="G52" s="13">
-        <v>4751291</v>
-      </c>
-      <c r="H52" s="13">
-        <v>4862013</v>
-      </c>
-      <c r="I52" s="13">
+      <c r="K52" s="13">
+        <v>4739059</v>
+      </c>
+      <c r="L52" s="13">
+        <v>5241066</v>
+      </c>
+      <c r="M52" s="13">
+        <v>5135368</v>
+      </c>
+      <c r="N52" s="13">
         <v>4885364</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>1519028</v>
+      </c>
+      <c r="F53" s="11">
+        <v>1581669</v>
+      </c>
+      <c r="G53" s="11">
+        <v>1780898</v>
+      </c>
+      <c r="H53" s="11">
+        <v>2156395</v>
+      </c>
+      <c r="I53" s="11">
+        <v>2638126</v>
+      </c>
+      <c r="J53" s="11">
         <v>3041007</v>
       </c>
-      <c r="F53" s="11">
-        <v>3085880</v>
-      </c>
-      <c r="G53" s="11">
-        <v>3312468</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K53" s="11">
+        <v>3183834</v>
+      </c>
+      <c r="L53" s="11">
+        <v>3752368</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -1608,80 +2188,130 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>2117717</v>
+      </c>
+      <c r="F56" s="13">
+        <v>2792175</v>
+      </c>
+      <c r="G56" s="13">
+        <v>3388620</v>
+      </c>
+      <c r="H56" s="13">
+        <v>4455845</v>
+      </c>
+      <c r="I56" s="13">
+        <v>5482965</v>
+      </c>
+      <c r="J56" s="13">
         <v>5938971</v>
       </c>
-      <c r="F56" s="13">
-        <v>5654530</v>
-      </c>
-      <c r="G56" s="13">
-        <v>5626562</v>
-      </c>
-      <c r="H56" s="13">
-        <v>5877847</v>
-      </c>
-      <c r="I56" s="13">
+      <c r="K56" s="13">
+        <v>5379098</v>
+      </c>
+      <c r="L56" s="13">
+        <v>5565049</v>
+      </c>
+      <c r="M56" s="13">
+        <v>6326012</v>
+      </c>
+      <c r="N56" s="13">
         <v>6395712</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H57" s="11">
+        <v>10160714</v>
+      </c>
+      <c r="I57" s="11">
+        <v>7175879</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1690,8 +2320,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1700,8 +2335,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1710,10 +2350,15 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1732,8 +2377,23 @@
       <c r="I61" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1742,10 +2402,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -1754,104 +2419,169 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>13</v>
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
+        <v>-462150</v>
+      </c>
+      <c r="F65" s="13">
+        <v>-507733</v>
+      </c>
+      <c r="G65" s="13">
+        <v>-495780</v>
+      </c>
+      <c r="H65" s="13">
+        <v>-758178</v>
+      </c>
+      <c r="I65" s="13">
+        <v>-2482821</v>
+      </c>
+      <c r="J65" s="13">
         <v>-791343</v>
       </c>
-      <c r="F65" s="13">
+      <c r="K65" s="13">
         <v>-1007767</v>
       </c>
-      <c r="G65" s="13">
+      <c r="L65" s="13">
         <v>-927882</v>
       </c>
-      <c r="H65" s="13">
+      <c r="M65" s="13">
         <v>-1283081</v>
       </c>
-      <c r="I65" s="13">
+      <c r="N65" s="13">
         <v>-1276516</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>-20736</v>
+      </c>
+      <c r="F66" s="11">
+        <v>-22978</v>
+      </c>
+      <c r="G66" s="11">
+        <v>-20150</v>
+      </c>
+      <c r="H66" s="11">
+        <v>-24777</v>
+      </c>
+      <c r="I66" s="11">
+        <v>-93768</v>
+      </c>
+      <c r="J66" s="11">
         <v>-40779</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>-41466</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>-48806</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
+        <v>-482886</v>
+      </c>
+      <c r="F67" s="15">
+        <v>-530711</v>
+      </c>
+      <c r="G67" s="15">
+        <v>-515930</v>
+      </c>
+      <c r="H67" s="15">
+        <v>-782955</v>
+      </c>
+      <c r="I67" s="15">
+        <v>-2576589</v>
+      </c>
+      <c r="J67" s="15">
         <v>-832122</v>
       </c>
-      <c r="F67" s="15">
+      <c r="K67" s="15">
         <v>-1049233</v>
       </c>
-      <c r="G67" s="15">
+      <c r="L67" s="15">
         <v>-976688</v>
       </c>
-      <c r="H67" s="15">
+      <c r="M67" s="15">
         <v>-1283081</v>
       </c>
-      <c r="I67" s="15">
+      <c r="N67" s="15">
         <v>-1276516</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -1860,61 +2590,96 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>13</v>
+      <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
+        <v>-155756</v>
+      </c>
+      <c r="F70" s="13">
+        <v>-170013</v>
+      </c>
+      <c r="G70" s="13">
+        <v>-192423</v>
+      </c>
+      <c r="H70" s="13">
+        <v>-118676</v>
+      </c>
+      <c r="I70" s="13">
+        <v>-805083</v>
+      </c>
+      <c r="J70" s="13">
         <v>-78158</v>
       </c>
-      <c r="F70" s="13">
+      <c r="K70" s="13">
         <v>-130130</v>
       </c>
-      <c r="G70" s="13">
+      <c r="L70" s="13">
         <v>-103186</v>
       </c>
-      <c r="H70" s="13">
+      <c r="M70" s="13">
         <v>-196747</v>
       </c>
-      <c r="I70" s="13">
+      <c r="N70" s="13">
         <v>-219875</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
@@ -1923,41 +2688,71 @@
       <c r="F71" s="11">
         <v>0</v>
       </c>
-      <c r="G71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11">
+        <v>-38</v>
+      </c>
+      <c r="I71" s="11">
+        <v>-152</v>
+      </c>
+      <c r="J71" s="11">
+        <v>0</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
+        <v>-155756</v>
+      </c>
+      <c r="F72" s="15">
+        <v>-170013</v>
+      </c>
+      <c r="G72" s="15">
+        <v>-192423</v>
+      </c>
+      <c r="H72" s="15">
+        <v>-118714</v>
+      </c>
+      <c r="I72" s="15">
+        <v>-805235</v>
+      </c>
+      <c r="J72" s="15">
         <v>-78158</v>
       </c>
-      <c r="F72" s="15">
+      <c r="K72" s="15">
         <v>-130130</v>
       </c>
-      <c r="G72" s="15">
+      <c r="L72" s="15">
         <v>-103186</v>
       </c>
-      <c r="H72" s="15">
+      <c r="M72" s="15">
         <v>-196747</v>
       </c>
-      <c r="I72" s="15">
+      <c r="N72" s="15">
         <v>-219875</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -1966,10 +2761,15 @@
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
@@ -1988,37 +2788,67 @@
       <c r="I74" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="19">
+        <v>0</v>
+      </c>
+      <c r="K74" s="19">
+        <v>0</v>
+      </c>
+      <c r="L74" s="19">
+        <v>0</v>
+      </c>
+      <c r="M74" s="19">
+        <v>0</v>
+      </c>
+      <c r="N74" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>13</v>
+      <c r="E75" s="15">
+        <v>0</v>
+      </c>
+      <c r="F75" s="15">
+        <v>0</v>
+      </c>
+      <c r="G75" s="15">
+        <v>0</v>
+      </c>
+      <c r="H75" s="15">
+        <v>0</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19">
@@ -2036,30 +2866,60 @@
       <c r="I76" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="19">
+        <v>0</v>
+      </c>
+      <c r="K76" s="19">
+        <v>0</v>
+      </c>
+      <c r="L76" s="19">
+        <v>0</v>
+      </c>
+      <c r="M76" s="19">
+        <v>0</v>
+      </c>
+      <c r="N76" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
+        <v>-638642</v>
+      </c>
+      <c r="F77" s="15">
+        <v>-700724</v>
+      </c>
+      <c r="G77" s="15">
+        <v>-708353</v>
+      </c>
+      <c r="H77" s="15">
+        <v>-901669</v>
+      </c>
+      <c r="I77" s="15">
+        <v>-3381824</v>
+      </c>
+      <c r="J77" s="15">
         <v>-910280</v>
       </c>
-      <c r="F77" s="15">
+      <c r="K77" s="15">
         <v>-1179363</v>
       </c>
-      <c r="G77" s="15">
+      <c r="L77" s="15">
         <v>-1079874</v>
       </c>
-      <c r="H77" s="15">
+      <c r="M77" s="15">
         <v>-1479828</v>
       </c>
-      <c r="I77" s="15">
+      <c r="N77" s="15">
         <v>-1496391</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2068,8 +2928,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2078,8 +2943,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2088,10 +2958,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2110,8 +2985,23 @@
       <c r="I81" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2120,10 +3010,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -2132,104 +3027,169 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>13</v>
+      <c r="E84" s="11">
+        <v>0</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0</v>
+      </c>
+      <c r="G84" s="11">
+        <v>0</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
+        <v>341232</v>
+      </c>
+      <c r="F85" s="13">
+        <v>379278</v>
+      </c>
+      <c r="G85" s="13">
+        <v>286491</v>
+      </c>
+      <c r="H85" s="13">
+        <v>548435</v>
+      </c>
+      <c r="I85" s="13">
+        <v>1871717</v>
+      </c>
+      <c r="J85" s="13">
         <v>785706</v>
       </c>
-      <c r="F85" s="13">
+      <c r="K85" s="13">
         <v>288157</v>
       </c>
-      <c r="G85" s="13">
+      <c r="L85" s="13">
         <v>604637</v>
       </c>
-      <c r="H85" s="13">
+      <c r="M85" s="13">
         <v>645604</v>
       </c>
-      <c r="I85" s="13">
+      <c r="N85" s="13">
         <v>634658</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>30876</v>
+      </c>
+      <c r="F86" s="11">
+        <v>37437</v>
+      </c>
+      <c r="G86" s="11">
+        <v>24303</v>
+      </c>
+      <c r="H86" s="11">
+        <v>53319</v>
+      </c>
+      <c r="I86" s="11">
+        <v>151943</v>
+      </c>
+      <c r="J86" s="11">
         <v>89145</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>20848</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>71600</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
+        <v>372108</v>
+      </c>
+      <c r="F87" s="15">
+        <v>416715</v>
+      </c>
+      <c r="G87" s="15">
+        <v>310794</v>
+      </c>
+      <c r="H87" s="15">
+        <v>601754</v>
+      </c>
+      <c r="I87" s="15">
+        <v>2023660</v>
+      </c>
+      <c r="J87" s="15">
         <v>874851</v>
       </c>
-      <c r="F87" s="15">
+      <c r="K87" s="15">
         <v>309005</v>
       </c>
-      <c r="G87" s="15">
+      <c r="L87" s="15">
         <v>676237</v>
       </c>
-      <c r="H87" s="15">
+      <c r="M87" s="15">
         <v>645604</v>
       </c>
-      <c r="I87" s="15">
+      <c r="N87" s="15">
         <v>634658</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -2238,61 +3198,96 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>13</v>
+      <c r="E89" s="11">
+        <v>0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>0</v>
+      </c>
+      <c r="G89" s="11">
+        <v>0</v>
+      </c>
+      <c r="H89" s="11">
+        <v>0</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
+        <v>7736</v>
+      </c>
+      <c r="F90" s="13">
+        <v>102037</v>
+      </c>
+      <c r="G90" s="13">
+        <v>131502</v>
+      </c>
+      <c r="H90" s="13">
+        <v>335486</v>
+      </c>
+      <c r="I90" s="13">
+        <v>608443</v>
+      </c>
+      <c r="J90" s="13">
         <v>107613</v>
       </c>
-      <c r="F90" s="13">
+      <c r="K90" s="13">
         <v>43631</v>
       </c>
-      <c r="G90" s="13">
+      <c r="L90" s="13">
         <v>57694</v>
       </c>
-      <c r="H90" s="13">
+      <c r="M90" s="13">
         <v>131320</v>
       </c>
-      <c r="I90" s="13">
+      <c r="N90" s="13">
         <v>166426</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
@@ -2301,41 +3296,71 @@
       <c r="F91" s="11">
         <v>0</v>
       </c>
-      <c r="G91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G91" s="11">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <v>531</v>
+      </c>
+      <c r="I91" s="11">
+        <v>1276</v>
+      </c>
+      <c r="J91" s="11">
+        <v>0</v>
+      </c>
+      <c r="K91" s="11">
+        <v>0</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
+        <v>7736</v>
+      </c>
+      <c r="F92" s="15">
+        <v>102037</v>
+      </c>
+      <c r="G92" s="15">
+        <v>131502</v>
+      </c>
+      <c r="H92" s="15">
+        <v>336017</v>
+      </c>
+      <c r="I92" s="15">
+        <v>609719</v>
+      </c>
+      <c r="J92" s="15">
         <v>107613</v>
       </c>
-      <c r="F92" s="15">
+      <c r="K92" s="15">
         <v>43631</v>
       </c>
-      <c r="G92" s="15">
+      <c r="L92" s="15">
         <v>57694</v>
       </c>
-      <c r="H92" s="15">
+      <c r="M92" s="15">
         <v>131320</v>
       </c>
-      <c r="I92" s="15">
+      <c r="N92" s="15">
         <v>166426</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -2344,10 +3369,15 @@
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
@@ -2366,26 +3396,56 @@
       <c r="I94" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="19">
+        <v>0</v>
+      </c>
+      <c r="K94" s="19">
+        <v>0</v>
+      </c>
+      <c r="L94" s="19">
+        <v>0</v>
+      </c>
+      <c r="M94" s="19">
+        <v>0</v>
+      </c>
+      <c r="N94" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>379844</v>
+      </c>
+      <c r="F95" s="15">
+        <v>518752</v>
+      </c>
+      <c r="G95" s="15">
+        <v>442296</v>
+      </c>
+      <c r="H95" s="15">
+        <v>937771</v>
+      </c>
+      <c r="I95" s="15">
+        <v>2633379</v>
+      </c>
+      <c r="J95" s="15">
         <v>982464</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>352636</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>733931</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>776924</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>801084</v>
       </c>
     </row>

--- a/database/industries/siman/seshargh/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/seshargh/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BC1BA0-A9FA-4D8A-8EB6-8DF7C28A8003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EC22E6-1503-4955-8E2C-D1AFDD3C8BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل اول منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل اول منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -661,12 +661,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -681,7 +681,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -730,7 +730,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -779,7 +779,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -816,7 +816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -831,7 +831,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -865,8 +865,8 @@
       <c r="G11" s="11">
         <v>0</v>
       </c>
-      <c r="H11" s="11">
-        <v>0</v>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>18</v>
@@ -887,7 +887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -896,37 +896,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>352656</v>
+        <v>336505</v>
       </c>
       <c r="F12" s="13">
-        <v>336505</v>
+        <v>291718</v>
       </c>
       <c r="G12" s="13">
-        <v>291718</v>
+        <v>369035</v>
       </c>
       <c r="H12" s="13">
-        <v>369035</v>
+        <v>291628</v>
       </c>
       <c r="I12" s="13">
-        <v>291628</v>
+        <v>361358</v>
       </c>
       <c r="J12" s="13">
-        <v>361358</v>
+        <v>273456</v>
       </c>
       <c r="K12" s="13">
-        <v>273456</v>
+        <v>292406</v>
       </c>
       <c r="L12" s="13">
-        <v>292406</v>
+        <v>375569</v>
       </c>
       <c r="M12" s="13">
-        <v>375569</v>
+        <v>391204</v>
       </c>
       <c r="N12" s="13">
-        <v>391204</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>348430</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -935,29 +935,29 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>33977</v>
+        <v>38197</v>
       </c>
       <c r="F13" s="11">
-        <v>38197</v>
+        <v>24961</v>
       </c>
       <c r="G13" s="11">
-        <v>24961</v>
+        <v>36216</v>
       </c>
       <c r="H13" s="11">
-        <v>36216</v>
+        <v>23625</v>
       </c>
       <c r="I13" s="11">
-        <v>23625</v>
+        <v>42724</v>
       </c>
       <c r="J13" s="11">
-        <v>42724</v>
+        <v>19572</v>
       </c>
       <c r="K13" s="11">
-        <v>19572</v>
-      </c>
-      <c r="L13" s="11">
         <v>32088</v>
       </c>
+      <c r="L13" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="M13" s="11" t="s">
         <v>18</v>
       </c>
@@ -965,44 +965,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>386633</v>
+        <v>374702</v>
       </c>
       <c r="F14" s="15">
-        <v>374702</v>
+        <v>316679</v>
       </c>
       <c r="G14" s="15">
-        <v>316679</v>
+        <v>405251</v>
       </c>
       <c r="H14" s="15">
-        <v>405251</v>
+        <v>315253</v>
       </c>
       <c r="I14" s="15">
-        <v>315253</v>
+        <v>404082</v>
       </c>
       <c r="J14" s="15">
-        <v>404082</v>
+        <v>293028</v>
       </c>
       <c r="K14" s="15">
-        <v>293028</v>
+        <v>324494</v>
       </c>
       <c r="L14" s="15">
-        <v>324494</v>
+        <v>375569</v>
       </c>
       <c r="M14" s="15">
-        <v>375569</v>
+        <v>391204</v>
       </c>
       <c r="N14" s="15">
-        <v>391204</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>348430</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1036,8 +1036,8 @@
       <c r="G16" s="11">
         <v>0</v>
       </c>
-      <c r="H16" s="11">
-        <v>0</v>
+      <c r="H16" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>18</v>
@@ -1058,7 +1058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1067,37 +1067,37 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>77202</v>
+        <v>97433</v>
       </c>
       <c r="F17" s="13">
-        <v>97433</v>
+        <v>95592</v>
       </c>
       <c r="G17" s="13">
-        <v>95592</v>
+        <v>101925</v>
       </c>
       <c r="H17" s="13">
-        <v>101925</v>
+        <v>66276</v>
       </c>
       <c r="I17" s="13">
-        <v>66276</v>
+        <v>31280</v>
       </c>
       <c r="J17" s="13">
-        <v>31280</v>
+        <v>32303</v>
       </c>
       <c r="K17" s="13">
-        <v>32303</v>
+        <v>28909</v>
       </c>
       <c r="L17" s="13">
-        <v>28909</v>
+        <v>51860</v>
       </c>
       <c r="M17" s="13">
-        <v>51860</v>
+        <v>60400</v>
       </c>
       <c r="N17" s="13">
-        <v>60400</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29043</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
@@ -1112,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H18" s="11">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="I18" s="11">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="J18" s="11">
         <v>0</v>
       </c>
-      <c r="K18" s="11">
-        <v>0</v>
+      <c r="K18" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>18</v>
@@ -1136,44 +1136,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>77202</v>
+        <v>97433</v>
       </c>
       <c r="F19" s="15">
-        <v>97433</v>
+        <v>95592</v>
       </c>
       <c r="G19" s="15">
-        <v>95592</v>
+        <v>101981</v>
       </c>
       <c r="H19" s="15">
-        <v>101981</v>
+        <v>66475</v>
       </c>
       <c r="I19" s="15">
-        <v>66475</v>
+        <v>31280</v>
       </c>
       <c r="J19" s="15">
-        <v>31280</v>
+        <v>32303</v>
       </c>
       <c r="K19" s="15">
-        <v>32303</v>
+        <v>28909</v>
       </c>
       <c r="L19" s="15">
-        <v>28909</v>
+        <v>51860</v>
       </c>
       <c r="M19" s="15">
-        <v>51860</v>
+        <v>60400</v>
       </c>
       <c r="N19" s="15">
-        <v>60400</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29043</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>26</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1242,8 +1242,8 @@
       <c r="G22" s="15">
         <v>0</v>
       </c>
-      <c r="H22" s="15">
-        <v>0</v>
+      <c r="H22" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>18</v>
@@ -1264,7 +1264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>28</v>
       </c>
@@ -1301,44 +1301,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
-        <v>463835</v>
+        <v>472135</v>
       </c>
       <c r="F24" s="15">
-        <v>472135</v>
+        <v>412271</v>
       </c>
       <c r="G24" s="15">
-        <v>412271</v>
+        <v>507232</v>
       </c>
       <c r="H24" s="15">
-        <v>507232</v>
+        <v>381728</v>
       </c>
       <c r="I24" s="15">
-        <v>381728</v>
+        <v>435362</v>
       </c>
       <c r="J24" s="15">
-        <v>435362</v>
+        <v>325331</v>
       </c>
       <c r="K24" s="15">
-        <v>325331</v>
+        <v>353403</v>
       </c>
       <c r="L24" s="15">
-        <v>353403</v>
+        <v>427429</v>
       </c>
       <c r="M24" s="15">
-        <v>427429</v>
+        <v>451604</v>
       </c>
       <c r="N24" s="15">
-        <v>451604</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>377473</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1353,7 +1353,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1368,7 +1368,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1383,7 +1383,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>30</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1435,7 +1435,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>31</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1469,8 +1469,8 @@
       <c r="G31" s="11">
         <v>0</v>
       </c>
-      <c r="H31" s="11">
-        <v>0</v>
+      <c r="H31" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>18</v>
@@ -1491,7 +1491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
@@ -1500,37 +1500,37 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>803382</v>
+        <v>887011</v>
       </c>
       <c r="F32" s="13">
-        <v>887011</v>
+        <v>782271</v>
       </c>
       <c r="G32" s="13">
-        <v>782271</v>
+        <v>1306613</v>
       </c>
       <c r="H32" s="13">
-        <v>1306613</v>
+        <v>1378643</v>
       </c>
       <c r="I32" s="13">
-        <v>1378643</v>
+        <v>1577049</v>
       </c>
       <c r="J32" s="13">
-        <v>1577049</v>
+        <v>1295924</v>
       </c>
       <c r="K32" s="13">
-        <v>1295924</v>
+        <v>1532519</v>
       </c>
       <c r="L32" s="13">
-        <v>1532519</v>
+        <v>1928685</v>
       </c>
       <c r="M32" s="13">
-        <v>1928685</v>
+        <v>1911174</v>
       </c>
       <c r="N32" s="13">
-        <v>1911174</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1872862</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>20</v>
       </c>
@@ -1539,29 +1539,29 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>51612</v>
+        <v>60415</v>
       </c>
       <c r="F33" s="11">
-        <v>60415</v>
+        <v>44453</v>
       </c>
       <c r="G33" s="11">
-        <v>44453</v>
+        <v>78096</v>
       </c>
       <c r="H33" s="11">
-        <v>78096</v>
+        <v>62747</v>
       </c>
       <c r="I33" s="11">
-        <v>62747</v>
+        <v>129924</v>
       </c>
       <c r="J33" s="11">
-        <v>129924</v>
+        <v>62314</v>
       </c>
       <c r="K33" s="11">
-        <v>62314</v>
-      </c>
-      <c r="L33" s="11">
         <v>120406</v>
       </c>
+      <c r="L33" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="M33" s="11" t="s">
         <v>18</v>
       </c>
@@ -1569,44 +1569,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
-        <v>854994</v>
+        <v>947426</v>
       </c>
       <c r="F34" s="15">
-        <v>947426</v>
+        <v>826724</v>
       </c>
       <c r="G34" s="15">
-        <v>826724</v>
+        <v>1384709</v>
       </c>
       <c r="H34" s="15">
-        <v>1384709</v>
+        <v>1441390</v>
       </c>
       <c r="I34" s="15">
-        <v>1441390</v>
+        <v>1706973</v>
       </c>
       <c r="J34" s="15">
-        <v>1706973</v>
+        <v>1358238</v>
       </c>
       <c r="K34" s="15">
-        <v>1358238</v>
+        <v>1652925</v>
       </c>
       <c r="L34" s="15">
-        <v>1652925</v>
+        <v>1928685</v>
       </c>
       <c r="M34" s="15">
-        <v>1928685</v>
+        <v>1911174</v>
       </c>
       <c r="N34" s="15">
-        <v>1911174</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1872862</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>16</v>
       </c>
@@ -1640,8 +1640,8 @@
       <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
+      <c r="H36" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>18</v>
@@ -1662,7 +1662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>19</v>
       </c>
@@ -1671,37 +1671,37 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>163492</v>
+        <v>272050</v>
       </c>
       <c r="F37" s="13">
-        <v>272050</v>
+        <v>323925</v>
       </c>
       <c r="G37" s="13">
-        <v>323925</v>
+        <v>454162</v>
       </c>
       <c r="H37" s="13">
-        <v>454162</v>
+        <v>363389</v>
       </c>
       <c r="I37" s="13">
-        <v>363389</v>
+        <v>185771</v>
       </c>
       <c r="J37" s="13">
-        <v>185771</v>
+        <v>173761</v>
       </c>
       <c r="K37" s="13">
-        <v>173761</v>
+        <v>160880</v>
       </c>
       <c r="L37" s="13">
-        <v>160880</v>
+        <v>328067</v>
       </c>
       <c r="M37" s="13">
-        <v>328067</v>
+        <v>386301</v>
       </c>
       <c r="N37" s="13">
-        <v>386301</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>189562</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>20</v>
       </c>
@@ -1716,19 +1716,19 @@
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="H38" s="11">
-        <v>569</v>
+        <v>1428</v>
       </c>
       <c r="I38" s="11">
-        <v>1428</v>
+        <v>0</v>
       </c>
       <c r="J38" s="11">
         <v>0</v>
       </c>
-      <c r="K38" s="11">
-        <v>0</v>
+      <c r="K38" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>18</v>
@@ -1740,44 +1740,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>163492</v>
+        <v>272050</v>
       </c>
       <c r="F39" s="15">
-        <v>272050</v>
+        <v>323925</v>
       </c>
       <c r="G39" s="15">
-        <v>323925</v>
+        <v>454731</v>
       </c>
       <c r="H39" s="15">
-        <v>454731</v>
+        <v>364817</v>
       </c>
       <c r="I39" s="15">
-        <v>364817</v>
+        <v>185771</v>
       </c>
       <c r="J39" s="15">
-        <v>185771</v>
+        <v>173761</v>
       </c>
       <c r="K39" s="15">
-        <v>173761</v>
+        <v>160880</v>
       </c>
       <c r="L39" s="15">
-        <v>160880</v>
+        <v>328067</v>
       </c>
       <c r="M39" s="15">
-        <v>328067</v>
+        <v>386301</v>
       </c>
       <c r="N39" s="15">
-        <v>386301</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>189562</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>33</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>26</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>27</v>
       </c>
@@ -1848,8 +1848,8 @@
       <c r="G42" s="15">
         <v>0</v>
       </c>
-      <c r="H42" s="15">
-        <v>0</v>
+      <c r="H42" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>18</v>
@@ -1870,7 +1870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>28</v>
       </c>
@@ -1909,44 +1909,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>1018486</v>
+        <v>1219476</v>
       </c>
       <c r="F44" s="15">
-        <v>1219476</v>
+        <v>1150649</v>
       </c>
       <c r="G44" s="15">
-        <v>1150649</v>
+        <v>1839440</v>
       </c>
       <c r="H44" s="15">
-        <v>1839440</v>
+        <v>1806207</v>
       </c>
       <c r="I44" s="15">
-        <v>1806207</v>
+        <v>1892744</v>
       </c>
       <c r="J44" s="15">
-        <v>1892744</v>
+        <v>1531999</v>
       </c>
       <c r="K44" s="15">
-        <v>1531999</v>
+        <v>1813805</v>
       </c>
       <c r="L44" s="15">
-        <v>1813805</v>
+        <v>2256752</v>
       </c>
       <c r="M44" s="15">
-        <v>2256752</v>
+        <v>2297475</v>
       </c>
       <c r="N44" s="15">
-        <v>2297475</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2062424</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1961,7 +1961,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1976,7 +1976,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1991,7 +1991,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>34</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2043,7 +2043,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>35</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>16</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>19</v>
       </c>
@@ -2108,37 +2108,37 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>2278090</v>
+        <v>2635952</v>
       </c>
       <c r="F52" s="13">
-        <v>2635952</v>
+        <v>2681600</v>
       </c>
       <c r="G52" s="13">
-        <v>2681600</v>
+        <v>3540621</v>
       </c>
       <c r="H52" s="13">
-        <v>3540621</v>
+        <v>4728318</v>
       </c>
       <c r="I52" s="13">
-        <v>4728318</v>
+        <v>4364229</v>
       </c>
       <c r="J52" s="13">
-        <v>4364229</v>
+        <v>4739059</v>
       </c>
       <c r="K52" s="13">
-        <v>4739059</v>
+        <v>5241066</v>
       </c>
       <c r="L52" s="13">
-        <v>5241066</v>
+        <v>5135368</v>
       </c>
       <c r="M52" s="13">
-        <v>5135368</v>
+        <v>4885364</v>
       </c>
       <c r="N52" s="13">
-        <v>4885364</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5375146</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>20</v>
       </c>
@@ -2147,29 +2147,29 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>1519028</v>
+        <v>1581669</v>
       </c>
       <c r="F53" s="11">
-        <v>1581669</v>
+        <v>1780898</v>
       </c>
       <c r="G53" s="11">
-        <v>1780898</v>
+        <v>2156395</v>
       </c>
       <c r="H53" s="11">
-        <v>2156395</v>
+        <v>2638126</v>
       </c>
       <c r="I53" s="11">
-        <v>2638126</v>
+        <v>3041007</v>
       </c>
       <c r="J53" s="11">
-        <v>3041007</v>
+        <v>3183834</v>
       </c>
       <c r="K53" s="11">
-        <v>3183834</v>
-      </c>
-      <c r="L53" s="11">
         <v>3752368</v>
       </c>
+      <c r="L53" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="M53" s="11" t="s">
         <v>18</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>38</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>19</v>
       </c>
@@ -2242,37 +2242,37 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>2117717</v>
+        <v>2792175</v>
       </c>
       <c r="F56" s="13">
-        <v>2792175</v>
+        <v>3388620</v>
       </c>
       <c r="G56" s="13">
-        <v>3388620</v>
+        <v>4455845</v>
       </c>
       <c r="H56" s="13">
-        <v>4455845</v>
+        <v>5482965</v>
       </c>
       <c r="I56" s="13">
-        <v>5482965</v>
+        <v>5938971</v>
       </c>
       <c r="J56" s="13">
-        <v>5938971</v>
+        <v>5379098</v>
       </c>
       <c r="K56" s="13">
-        <v>5379098</v>
+        <v>5565049</v>
       </c>
       <c r="L56" s="13">
-        <v>5565049</v>
+        <v>6326012</v>
       </c>
       <c r="M56" s="13">
-        <v>6326012</v>
+        <v>6395712</v>
       </c>
       <c r="N56" s="13">
-        <v>6395712</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6526943</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>20</v>
       </c>
@@ -2286,15 +2286,15 @@
       <c r="F57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="11" t="s">
-        <v>18</v>
+      <c r="G57" s="11">
+        <v>10160714</v>
       </c>
       <c r="H57" s="11">
-        <v>10160714</v>
-      </c>
-      <c r="I57" s="11">
         <v>7175879</v>
       </c>
+      <c r="I57" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J57" s="11" t="s">
         <v>18</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2326,7 +2326,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2341,7 +2341,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2356,7 +2356,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>39</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2408,7 +2408,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>40</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>16</v>
       </c>
@@ -2442,8 +2442,8 @@
       <c r="G64" s="11">
         <v>0</v>
       </c>
-      <c r="H64" s="11">
-        <v>0</v>
+      <c r="H64" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>18</v>
@@ -2464,7 +2464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>19</v>
       </c>
@@ -2473,37 +2473,37 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>-462150</v>
+        <v>-507733</v>
       </c>
       <c r="F65" s="13">
-        <v>-507733</v>
+        <v>-495780</v>
       </c>
       <c r="G65" s="13">
-        <v>-495780</v>
+        <v>-758178</v>
       </c>
       <c r="H65" s="13">
-        <v>-758178</v>
+        <v>-2482821</v>
       </c>
       <c r="I65" s="13">
-        <v>-2482821</v>
+        <v>-791343</v>
       </c>
       <c r="J65" s="13">
-        <v>-791343</v>
+        <v>-1007767</v>
       </c>
       <c r="K65" s="13">
-        <v>-1007767</v>
+        <v>-927882</v>
       </c>
       <c r="L65" s="13">
-        <v>-927882</v>
+        <v>-1283081</v>
       </c>
       <c r="M65" s="13">
-        <v>-1283081</v>
+        <v>-1276516</v>
       </c>
       <c r="N65" s="13">
-        <v>-1276516</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1387632</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>20</v>
       </c>
@@ -2512,29 +2512,29 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>-20736</v>
+        <v>-22978</v>
       </c>
       <c r="F66" s="11">
-        <v>-22978</v>
+        <v>-20150</v>
       </c>
       <c r="G66" s="11">
-        <v>-20150</v>
+        <v>-24777</v>
       </c>
       <c r="H66" s="11">
-        <v>-24777</v>
+        <v>-93768</v>
       </c>
       <c r="I66" s="11">
-        <v>-93768</v>
+        <v>-40779</v>
       </c>
       <c r="J66" s="11">
-        <v>-40779</v>
+        <v>-41466</v>
       </c>
       <c r="K66" s="11">
-        <v>-41466</v>
-      </c>
-      <c r="L66" s="11">
         <v>-48806</v>
       </c>
+      <c r="L66" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="M66" s="11" t="s">
         <v>18</v>
       </c>
@@ -2542,44 +2542,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>-482886</v>
+        <v>-530711</v>
       </c>
       <c r="F67" s="15">
-        <v>-530711</v>
+        <v>-515930</v>
       </c>
       <c r="G67" s="15">
-        <v>-515930</v>
+        <v>-782955</v>
       </c>
       <c r="H67" s="15">
-        <v>-782955</v>
+        <v>-2576589</v>
       </c>
       <c r="I67" s="15">
-        <v>-2576589</v>
+        <v>-832122</v>
       </c>
       <c r="J67" s="15">
-        <v>-832122</v>
+        <v>-1049233</v>
       </c>
       <c r="K67" s="15">
-        <v>-1049233</v>
+        <v>-976688</v>
       </c>
       <c r="L67" s="15">
-        <v>-976688</v>
+        <v>-1283081</v>
       </c>
       <c r="M67" s="15">
-        <v>-1283081</v>
+        <v>-1276516</v>
       </c>
       <c r="N67" s="15">
-        <v>-1276516</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1387632</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>42</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -2613,8 +2613,8 @@
       <c r="G69" s="11">
         <v>0</v>
       </c>
-      <c r="H69" s="11">
-        <v>0</v>
+      <c r="H69" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>18</v>
@@ -2635,7 +2635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>19</v>
       </c>
@@ -2644,37 +2644,37 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
-        <v>-155756</v>
+        <v>-170013</v>
       </c>
       <c r="F70" s="13">
-        <v>-170013</v>
+        <v>-192423</v>
       </c>
       <c r="G70" s="13">
-        <v>-192423</v>
+        <v>-118676</v>
       </c>
       <c r="H70" s="13">
-        <v>-118676</v>
+        <v>-805083</v>
       </c>
       <c r="I70" s="13">
-        <v>-805083</v>
+        <v>-78158</v>
       </c>
       <c r="J70" s="13">
-        <v>-78158</v>
+        <v>-130130</v>
       </c>
       <c r="K70" s="13">
-        <v>-130130</v>
+        <v>-103186</v>
       </c>
       <c r="L70" s="13">
-        <v>-103186</v>
+        <v>-196747</v>
       </c>
       <c r="M70" s="13">
-        <v>-196747</v>
+        <v>-219875</v>
       </c>
       <c r="N70" s="13">
-        <v>-219875</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-123911</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>20</v>
       </c>
@@ -2689,19 +2689,19 @@
         <v>0</v>
       </c>
       <c r="G71" s="11">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="H71" s="11">
-        <v>-38</v>
+        <v>-152</v>
       </c>
       <c r="I71" s="11">
-        <v>-152</v>
+        <v>0</v>
       </c>
       <c r="J71" s="11">
         <v>0</v>
       </c>
-      <c r="K71" s="11">
-        <v>0</v>
+      <c r="K71" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L71" s="11" t="s">
         <v>18</v>
@@ -2713,44 +2713,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>-155756</v>
+        <v>-170013</v>
       </c>
       <c r="F72" s="15">
-        <v>-170013</v>
+        <v>-192423</v>
       </c>
       <c r="G72" s="15">
-        <v>-192423</v>
+        <v>-118714</v>
       </c>
       <c r="H72" s="15">
-        <v>-118714</v>
+        <v>-805235</v>
       </c>
       <c r="I72" s="15">
-        <v>-805235</v>
+        <v>-78158</v>
       </c>
       <c r="J72" s="15">
-        <v>-78158</v>
+        <v>-130130</v>
       </c>
       <c r="K72" s="15">
-        <v>-130130</v>
+        <v>-103186</v>
       </c>
       <c r="L72" s="15">
-        <v>-103186</v>
+        <v>-196747</v>
       </c>
       <c r="M72" s="15">
-        <v>-196747</v>
+        <v>-219875</v>
       </c>
       <c r="N72" s="15">
-        <v>-219875</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-123911</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>44</v>
       </c>
@@ -2767,7 +2767,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>45</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>27</v>
       </c>
@@ -2821,8 +2821,8 @@
       <c r="G75" s="15">
         <v>0</v>
       </c>
-      <c r="H75" s="15">
-        <v>0</v>
+      <c r="H75" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I75" s="15" t="s">
         <v>18</v>
@@ -2843,7 +2843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>28</v>
       </c>
@@ -2882,44 +2882,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>-638642</v>
+        <v>-700724</v>
       </c>
       <c r="F77" s="15">
-        <v>-700724</v>
+        <v>-708353</v>
       </c>
       <c r="G77" s="15">
-        <v>-708353</v>
+        <v>-901669</v>
       </c>
       <c r="H77" s="15">
-        <v>-901669</v>
+        <v>-3381824</v>
       </c>
       <c r="I77" s="15">
-        <v>-3381824</v>
+        <v>-910280</v>
       </c>
       <c r="J77" s="15">
-        <v>-910280</v>
+        <v>-1179363</v>
       </c>
       <c r="K77" s="15">
-        <v>-1179363</v>
+        <v>-1079874</v>
       </c>
       <c r="L77" s="15">
-        <v>-1079874</v>
+        <v>-1479828</v>
       </c>
       <c r="M77" s="15">
-        <v>-1479828</v>
+        <v>-1496391</v>
       </c>
       <c r="N77" s="15">
-        <v>-1496391</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1511543</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2934,7 +2934,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2949,7 +2949,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2964,7 +2964,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>46</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3016,7 +3016,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>47</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>16</v>
       </c>
@@ -3050,8 +3050,8 @@
       <c r="G84" s="11">
         <v>0</v>
       </c>
-      <c r="H84" s="11">
-        <v>0</v>
+      <c r="H84" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I84" s="11" t="s">
         <v>18</v>
@@ -3072,7 +3072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>19</v>
       </c>
@@ -3081,37 +3081,37 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
-        <v>341232</v>
+        <v>379278</v>
       </c>
       <c r="F85" s="13">
-        <v>379278</v>
+        <v>286491</v>
       </c>
       <c r="G85" s="13">
-        <v>286491</v>
+        <v>548435</v>
       </c>
       <c r="H85" s="13">
-        <v>548435</v>
+        <v>1871717</v>
       </c>
       <c r="I85" s="13">
-        <v>1871717</v>
+        <v>785706</v>
       </c>
       <c r="J85" s="13">
-        <v>785706</v>
+        <v>288157</v>
       </c>
       <c r="K85" s="13">
-        <v>288157</v>
+        <v>604637</v>
       </c>
       <c r="L85" s="13">
-        <v>604637</v>
+        <v>645604</v>
       </c>
       <c r="M85" s="13">
-        <v>645604</v>
+        <v>634658</v>
       </c>
       <c r="N85" s="13">
-        <v>634658</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>485230</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>20</v>
       </c>
@@ -3120,29 +3120,29 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>30876</v>
+        <v>37437</v>
       </c>
       <c r="F86" s="11">
-        <v>37437</v>
+        <v>24303</v>
       </c>
       <c r="G86" s="11">
-        <v>24303</v>
+        <v>53319</v>
       </c>
       <c r="H86" s="11">
-        <v>53319</v>
+        <v>151943</v>
       </c>
       <c r="I86" s="11">
-        <v>151943</v>
+        <v>89145</v>
       </c>
       <c r="J86" s="11">
-        <v>89145</v>
+        <v>20848</v>
       </c>
       <c r="K86" s="11">
-        <v>20848</v>
-      </c>
-      <c r="L86" s="11">
         <v>71600</v>
       </c>
+      <c r="L86" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="M86" s="11" t="s">
         <v>18</v>
       </c>
@@ -3150,44 +3150,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>372108</v>
+        <v>416715</v>
       </c>
       <c r="F87" s="15">
-        <v>416715</v>
+        <v>310794</v>
       </c>
       <c r="G87" s="15">
-        <v>310794</v>
+        <v>601754</v>
       </c>
       <c r="H87" s="15">
-        <v>601754</v>
+        <v>2023660</v>
       </c>
       <c r="I87" s="15">
-        <v>2023660</v>
+        <v>874851</v>
       </c>
       <c r="J87" s="15">
-        <v>874851</v>
+        <v>309005</v>
       </c>
       <c r="K87" s="15">
-        <v>309005</v>
+        <v>676237</v>
       </c>
       <c r="L87" s="15">
-        <v>676237</v>
+        <v>645604</v>
       </c>
       <c r="M87" s="15">
-        <v>645604</v>
+        <v>634658</v>
       </c>
       <c r="N87" s="15">
-        <v>634658</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>485230</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>49</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>16</v>
       </c>
@@ -3221,8 +3221,8 @@
       <c r="G89" s="11">
         <v>0</v>
       </c>
-      <c r="H89" s="11">
-        <v>0</v>
+      <c r="H89" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>18</v>
@@ -3243,7 +3243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>19</v>
       </c>
@@ -3252,37 +3252,37 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>7736</v>
+        <v>102037</v>
       </c>
       <c r="F90" s="13">
-        <v>102037</v>
+        <v>131502</v>
       </c>
       <c r="G90" s="13">
-        <v>131502</v>
+        <v>335486</v>
       </c>
       <c r="H90" s="13">
-        <v>335486</v>
+        <v>608443</v>
       </c>
       <c r="I90" s="13">
-        <v>608443</v>
+        <v>107613</v>
       </c>
       <c r="J90" s="13">
-        <v>107613</v>
+        <v>43631</v>
       </c>
       <c r="K90" s="13">
-        <v>43631</v>
+        <v>57694</v>
       </c>
       <c r="L90" s="13">
-        <v>57694</v>
+        <v>131320</v>
       </c>
       <c r="M90" s="13">
-        <v>131320</v>
+        <v>166426</v>
       </c>
       <c r="N90" s="13">
-        <v>166426</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>65651</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>20</v>
       </c>
@@ -3297,19 +3297,19 @@
         <v>0</v>
       </c>
       <c r="G91" s="11">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="H91" s="11">
-        <v>531</v>
+        <v>1276</v>
       </c>
       <c r="I91" s="11">
-        <v>1276</v>
+        <v>0</v>
       </c>
       <c r="J91" s="11">
         <v>0</v>
       </c>
-      <c r="K91" s="11">
-        <v>0</v>
+      <c r="K91" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L91" s="11" t="s">
         <v>18</v>
@@ -3321,44 +3321,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>7736</v>
+        <v>102037</v>
       </c>
       <c r="F92" s="15">
-        <v>102037</v>
+        <v>131502</v>
       </c>
       <c r="G92" s="15">
-        <v>131502</v>
+        <v>336017</v>
       </c>
       <c r="H92" s="15">
-        <v>336017</v>
+        <v>609719</v>
       </c>
       <c r="I92" s="15">
-        <v>609719</v>
+        <v>107613</v>
       </c>
       <c r="J92" s="15">
-        <v>107613</v>
+        <v>43631</v>
       </c>
       <c r="K92" s="15">
-        <v>43631</v>
+        <v>57694</v>
       </c>
       <c r="L92" s="15">
-        <v>57694</v>
+        <v>131320</v>
       </c>
       <c r="M92" s="15">
-        <v>131320</v>
+        <v>166426</v>
       </c>
       <c r="N92" s="15">
-        <v>166426</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>65651</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
         <v>51</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="18" t="s">
         <v>52</v>
       </c>
@@ -3412,41 +3412,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>379844</v>
+        <v>518752</v>
       </c>
       <c r="F95" s="15">
-        <v>518752</v>
+        <v>442296</v>
       </c>
       <c r="G95" s="15">
-        <v>442296</v>
+        <v>937771</v>
       </c>
       <c r="H95" s="15">
-        <v>937771</v>
+        <v>2633379</v>
       </c>
       <c r="I95" s="15">
-        <v>2633379</v>
+        <v>982464</v>
       </c>
       <c r="J95" s="15">
-        <v>982464</v>
+        <v>352636</v>
       </c>
       <c r="K95" s="15">
-        <v>352636</v>
+        <v>733931</v>
       </c>
       <c r="L95" s="15">
-        <v>733931</v>
+        <v>776924</v>
       </c>
       <c r="M95" s="15">
-        <v>776924</v>
+        <v>801084</v>
       </c>
       <c r="N95" s="15">
-        <v>801084</v>
+        <v>550881</v>
       </c>
     </row>
   </sheetData>
